--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.3/CV32E40Pv2_uncovered_coverage_explanation.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.3/CV32E40Pv2_uncovered_coverage_explanation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\core-v-docs\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\core-v-docs\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7927129-0A1A-41BB-BC08-DF3237CB7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D7D2D-4664-472C-A1B0-C0691C7AD12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" xr2:uid="{9C133A6F-F4C2-4C35-A1E6-85F78A61AE65}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="789" xr2:uid="{9C133A6F-F4C2-4C35-A1E6-85F78A61AE65}"/>
   </bookViews>
   <sheets>
     <sheet name="Code Cov uncovered (CFG_P)" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>CFG_P</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Lines</t>
-  </si>
-  <si>
-    <t>Not sure this is possible as single stepping Hwloop prevents to go in DECODE_HWLOOP FSM state</t>
   </si>
   <si>
     <t>cv32e40p_controller</t>
@@ -90,24 +87,11 @@
     <t>861.1-2</t>
   </si>
   <si>
-    <t xml:space="preserve">the same code in DECODE state are all covered.
-But this one in DECODE_HWLOOP state are all not covered.
-Unreachable. Need to prove. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To further analyze
-happened on hwloop 0; but not on hwloop 1. </t>
-  </si>
-  <si>
     <t>Action (to waive / to add test)</t>
   </si>
   <si>
     <t>Mike Thompson
 comment</t>
-  </si>
-  <si>
-    <t>happened at hwloop 0 but did not happen on hwloop 1. 
-Inside DECODE_HWLOOP state.</t>
   </si>
   <si>
     <t>related to HWLOOP only</t>
@@ -129,19 +113,30 @@
     </r>
   </si>
   <si>
-    <t>Need assertion proof
-Could be proven with JasperGold?</t>
-  </si>
-  <si>
-    <t>Could add test?
-Could be proven with JasperGold?</t>
+    <t>Could be proven with JasperGold?</t>
+  </si>
+  <si>
+    <t>Happened on hwloop 0; but not on hwloop 1.
+Inside DECODE_HWLOOP state.</t>
+  </si>
+  <si>
+    <t>Issue #1009</t>
+  </si>
+  <si>
+    <t>Not sure this is possible as Hwloop debug single stepping prevents to go in DECODE_HWLOOP FSM state.
+The same code in DECODE state are all covered.
+But those ones in DECODE_HWLOOP state are all not covered.
+Unreachable. Need to prove.</t>
+  </si>
+  <si>
+    <t>Issue #1010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +158,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,9 +218,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -237,42 +241,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4:L7"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +602,7 @@
     <col min="8" max="8" width="12.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="28.5546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="54.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="34.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.88671875" style="6" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="3"/>
@@ -609,184 +610,184 @@
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>831</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>852</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>850</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7">
         <v>850</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="17" t="s">
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>20</v>
+      <c r="L4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>867</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>872</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>865</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>870</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>877</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>882</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>875</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>880</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>887</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>885</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T7" xr:uid="{A3C3E37B-E87C-4EDB-8A44-82012E83B017}">
@@ -795,6 +796,10 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="K4:K7"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -806,13 +811,14 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="K4:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" display="https://github.com/openhwgroup/cv32e40p/issues/1009" xr:uid="{4C6D8033-0105-4A2B-9E2E-8DA9DC88E5E9}"/>
+    <hyperlink ref="K4:K7" r:id="rId2" display="Issue #1010" xr:uid="{23AFBB36-8790-43E8-B4C8-6DEFC00CD9F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -841,342 +847,342 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U2" xr:uid="{A3C3E37B-E87C-4EDB-8A44-82012E83B017}">
@@ -1205,15 +1211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="254d2fc45a10493323dcacd51be5aaf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="003ab9e0b5c5bed7880e662758cd0922" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -1462,6 +1459,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1474,14 +1480,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DCBB5CA-1E73-4C95-B488-5F0C07035068}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1446851-F48B-4754-BE8A-86B2E1B037DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1496,6 +1494,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DCBB5CA-1E73-4C95-B488-5F0C07035068}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
